--- a/Results_microresp_Calc.xlsx
+++ b/Results_microresp_Calc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcajasmunoz/Library/CloudStorage/GoogleDrive-dadavid.cajas@gmail.com/Mi unidad/Academia/Postgrado/UvA/Results and experiments track/Experiment 1 - Inoculants and amendments on crops and grasses/9-Analysis/2-Microresp/Samples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcajasmunoz/Library/CloudStorage/GoogleDrive-dadavid.cajas@gmail.com/Mi unidad/Academia/Postgrado/UvA/Results and experiments track/Experiment 1 - Inoculants and amendments on crops and grasses/9-Analysis/2-Microresp/Samples/Github/Microresp-workshop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D825C63-E8E8-BD4C-A0F7-8E9165534B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901846D5-DC90-FC48-B20C-63D11F2BAC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="15800" firstSheet="1" activeTab="11" xr2:uid="{2B25D4F8-1AFE-C849-B0EC-033AE1FD57E2}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="15800" firstSheet="2" activeTab="16" xr2:uid="{2B25D4F8-1AFE-C849-B0EC-033AE1FD57E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_3" sheetId="2" r:id="rId1"/>
@@ -28,8 +28,9 @@
     <sheet name="Plate 12" sheetId="14" r:id="rId13"/>
     <sheet name="Plate 13" sheetId="15" r:id="rId14"/>
     <sheet name="Plate 14" sheetId="16" r:id="rId15"/>
-    <sheet name="Plate 15" sheetId="17" r:id="rId16"/>
-    <sheet name="Plate 16" sheetId="18" r:id="rId17"/>
+    <sheet name="Plate 16" sheetId="17" r:id="rId16"/>
+    <sheet name="Plate 17" sheetId="22" r:id="rId17"/>
+    <sheet name="Plate 18" sheetId="21" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3915" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4150" uniqueCount="590">
   <si>
     <t>A1</t>
   </si>
@@ -1823,6 +1824,21 @@
   </si>
   <si>
     <t>mix_Cl_Cp_4</t>
+  </si>
+  <si>
+    <t>S220</t>
+  </si>
+  <si>
+    <t>Faba_Cl_Cp_1</t>
+  </si>
+  <si>
+    <t>Looks like the seal did not work</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>S249</t>
   </si>
 </sst>
 </file>
@@ -3811,7 +3827,7 @@
         <xdr:cNvPr id="2" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9141FF1-E3C7-F348-8159-AA8BE410C551}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6E112A2-41A1-E34E-9C55-FD431B56057F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3821,7 +3837,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="17335500" y="3860800"/>
+          <a:off x="11557000" y="3860800"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3859,7 +3875,7 @@
         <xdr:cNvPr id="3" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{849A9B1D-76A1-5445-AACD-E670DF9F5A12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F563840A-C099-A74C-B6CA-45A573DC493F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3869,7 +3885,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15684500" y="3860800"/>
+          <a:off x="9906000" y="3860800"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3907,7 +3923,7 @@
         <xdr:cNvPr id="4" name="AutoShape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D65640-F4B4-694D-8A0E-8C23E0E58C21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA32549A-9928-8C42-AB25-2DF7695EDFD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3917,7 +3933,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16510000" y="3657600"/>
+          <a:off x="10731500" y="3657600"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3937,6 +3953,11 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
@@ -3952,10 +3973,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 1">
+        <xdr:cNvPr id="2" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9E280D1-EAD3-4043-85D1-7E52FE8ED63D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB5CFBA2-F14B-C94A-BD7E-A94837B58BFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3965,7 +3986,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="17335500" y="3860800"/>
+          <a:off x="12827000" y="3860800"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4000,10 +4021,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 2">
+        <xdr:cNvPr id="3" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F6C370E-2A4D-064D-A4D1-60C20635DE33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C3CC465-0F88-0748-96B7-B36864F119B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4013,7 +4034,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15684500" y="3860800"/>
+          <a:off x="11176000" y="3860800"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4048,10 +4069,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 3">
+        <xdr:cNvPr id="4" name="AutoShape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA7422F-DB55-8946-90EB-E595FA9E8527}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082C2802-1330-0F48-AA49-33ED7E3AEE67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4061,7 +4082,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16510000" y="3657600"/>
+          <a:off x="12001500" y="3657600"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13843,7 +13864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071BF448-CFB1-EF4C-BC8C-CDB3D319D17A}">
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+    <sheetView zoomScale="109" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -16496,7 +16517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D422A9A-4588-294C-97E9-4CCCE8E0FA47}">
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -19148,7 +19169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E6A223-CEED-F748-B655-8CCF4EE9BEAA}">
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -24452,8 +24473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96E4051-4377-CF4D-A218-CCB6E058E6F5}">
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27101,19 +27122,2670 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B21CE1-C0D8-564A-BCCB-A648AEBC0550}">
-  <dimension ref="A1:L98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E332D61-9943-054E-B1CA-31BC9FAB8A87}">
+  <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="24" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <f>B13</f>
+        <v>C1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.131</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.036</v>
+      </c>
+      <c r="F2">
+        <f>(E2/D2)*AVERAGE($D$2:$D$97)</f>
+        <v>1.0591672561155323</v>
+      </c>
+      <c r="G2">
+        <f>D2-F2</f>
+        <v>7.1832743884467698E-2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <f>B12</f>
+        <v>C9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">(E3/D3)*AVERAGE($D$2:$D$97)</f>
+        <v>1.0689675564236114</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="1">D3-F3</f>
+        <v>8.3032443576388504E-2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="str">
+        <f>B11</f>
+        <v>S2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.1339999999999999</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.0589999999999999</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1.0798173500881838</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>5.4182649911816094E-2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="str">
+        <f>B10</f>
+        <v>S2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.1459999999999999</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.052</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1.0614474985456666</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>8.4552501454333351E-2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="str">
+        <f>B9</f>
+        <v>S2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.016</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1.0433324452338666</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>8.26675547661333E-2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="str">
+        <f>B8</f>
+        <v>S2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.135</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.004</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1.0228342143906024</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.11216578560939761</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="str">
+        <f>B7</f>
+        <v>S1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1.0128258487654322</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>6.7174151234567825E-2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="str">
+        <f>B6</f>
+        <v>S1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.94803483422939083</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.16796516577060927</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="str">
+        <f>B5</f>
+        <v>S1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.86318985917537772</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.28481014082462219</v>
+      </c>
+      <c r="I10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="str">
+        <f>B4</f>
+        <v>S1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.83820784796893688</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.27779215203106322</v>
+      </c>
+      <c r="I11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="str">
+        <f>B3</f>
+        <v>S1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.157</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.84248390233362158</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.31451609766637845</v>
+      </c>
+      <c r="I12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="str">
+        <f>B2</f>
+        <v>S1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.093</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.85584625648063473</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0.23715374351936525</v>
+      </c>
+      <c r="I13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="str">
+        <f>B25</f>
+        <v>C2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.137</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.044</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1.0617137203166229</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>7.5286279683377089E-2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="str">
+        <f>B24</f>
+        <v>C10</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.1379999999999999</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.04</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1.0567164616285885</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>8.1283538371411446E-2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="str">
+        <f>B23</f>
+        <v>S4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.149</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.0429999999999999</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1.049618980272701</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>9.9381019727299069E-2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="str">
+        <f>B22</f>
+        <v>S4</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.147</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.034</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1.0423762714327234</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0.10462372856727664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="str">
+        <f>B21</f>
+        <v>S4</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.024</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>1.0278148148148152</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0.12418518518518473</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="str">
+        <f>B20</f>
+        <v>S4</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.1319999999999999</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0.99387967461719706</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0.13812032538280283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="str">
+        <f>B19</f>
+        <v>S4</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0.90374420878459694</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.20425579121540316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="str">
+        <f>B18</f>
+        <v>S3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.1459999999999999</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0.82231911721931372</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0.32368088278068619</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="str">
+        <f>B17</f>
+        <v>S3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.139</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0.74920390693590888</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0.38979609306409113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="str">
+        <f>B16</f>
+        <v>S3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0.78649650157232709</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0.27350349842767296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="str">
+        <f>B15</f>
+        <v>S3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.7914370034953927</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0.25756299650460723</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="str">
+        <f>B14</f>
+        <v>S3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0.74812070833333355</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0.25187929166666645</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="str">
+        <f>B37</f>
+        <v>C3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.1930000000000001</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1.22</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>1.1824608829281924</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>1.0539117071807658E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="str">
+        <f>B36</f>
+        <v>H2O</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1.165</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1.0620000000000001</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>1.0540615879828328</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0.11093841201716725</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="str">
+        <f>B35</f>
+        <v>S6</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1.151</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>1.0437767520996237</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>0.1072232479003763</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="str">
+        <f>B34</f>
+        <v>S6</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1.131</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>1.0356529251399942</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>9.534707486000582E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="str">
+        <f>B33</f>
+        <v>S6</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1.095</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>1.0443584094368343</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>5.0641590563165639E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="str">
+        <f>B32</f>
+        <v>S6</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1.139</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0.96645273631840811</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>0.1725472636815919</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="str">
+        <f>B31</f>
+        <v>S6</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1.075</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0.90352093023255831</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>0.17147906976744165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="str">
+        <f>B30</f>
+        <v>S5</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0.89822077294686031</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>0.13677922705313961</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="str">
+        <f>B29</f>
+        <v>S5</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1.105</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0.89364079939668195</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0.21135920060331803</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="str">
+        <f>B28</f>
+        <v>S5</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1.173</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0.83197797669792561</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>0.34102202330207443</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="str">
+        <f>B27</f>
+        <v>S5</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0.88621643724097132</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>0.23978356275902857</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="str">
+        <f>B26</f>
+        <v>S5</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>0.92482758748517213</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>0.19917241251482798</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="str">
+        <f>B49</f>
+        <v>C4</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>1.1270712996389893</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>-1.9071299638989236E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="str">
+        <f>B48</f>
+        <v>H2O</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1.036</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>1.0489651196730885</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>9.3034880326911429E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="str">
+        <f>B47</f>
+        <v>S8</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1.135</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1.034</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>1.0533969897209987</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>8.1603010279001298E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="str">
+        <f>B46</f>
+        <v>S8</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1.022</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>1.0588979241338115</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>5.7102075866188651E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="str">
+        <f>B45</f>
+        <v>S8</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1.129</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1.006</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>1.0303183495718928</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>9.868165042810717E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" t="str">
+        <f>B44</f>
+        <v>S8</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1.105</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>0.87689811463046774</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>0.22810188536953224</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="str">
+        <f>B43</f>
+        <v>S8</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>0.84421294694348359</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>0.31178705305651633</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" t="str">
+        <f>B42</f>
+        <v>S7</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1.149</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>0.90269244995648412</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>0.2463075500435159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="str">
+        <f>B41</f>
+        <v>S7</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>0.91959433072009322</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>0.22840566927990669</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="str">
+        <f>B40</f>
+        <v>S7</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1.127</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>0.90902787636793869</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>0.21797212363206131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" t="str">
+        <f>B39</f>
+        <v>S7</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1.1619999999999999</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>0.95826925559380405</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>0.20373074440619587</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" t="str">
+        <f>B38</f>
+        <v>S7</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1.1990000000000001</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1.012</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>0.97595259938837942</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>0.22304740061162065</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" t="str">
+        <f>B61</f>
+        <v>C5</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1.127</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1.036</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>1.0629265010351969</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>6.4073498964803077E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" t="str">
+        <f>B60</f>
+        <v>H2O</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1.159</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1.0589999999999999</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>1.056525345125108</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>0.10247465487489205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" t="str">
+        <f>B59</f>
+        <v>X</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1.151</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1.044</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>1.0487997393570809</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>0.10220026064291909</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" t="str">
+        <f>B58</f>
+        <v>X</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1.147</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1.032</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>1.0403600697471669</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>0.10663993025283314</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" t="str">
+        <f>B57</f>
+        <v>S10</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1.143</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1.014</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>1.0257915573053371</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>0.11720844269466291</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" t="str">
+        <f>B56</f>
+        <v>S10</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1.151</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>0.85893082102519558</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>0.29206917897480444</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" t="str">
+        <f>B55</f>
+        <v>S10</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1.167</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>0.83724632247929176</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>0.32975367752070828</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" t="str">
+        <f>B54</f>
+        <v>S9</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1.165</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>0.93595110872675269</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>0.22904889127324735</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="C58" t="str">
+        <f>B53</f>
+        <v>S9</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1.1830000000000001</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>0.97058125528317851</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>0.21241874471682154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="C59" t="str">
+        <f>B52</f>
+        <v>S9</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1.1539999999999999</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>0.97192627094165251</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>0.1820737290583474</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" t="str">
+        <f>B51</f>
+        <v>S9</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>0.97801324767711983</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>0.16998675232288007</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" t="str">
+        <f>B50</f>
+        <v>S9</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1.1579999999999999</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>1.0624303396660912</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>9.5569660333908679E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" t="str">
+        <f>B73</f>
+        <v>C6</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1.153</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>1.0700461477305583</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>8.2953852269441741E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" t="str">
+        <f>B72</f>
+        <v>H2O</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1.1459999999999999</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1.044</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>1.0533756544502622</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>9.2624345549737752E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" t="str">
+        <f>B71</f>
+        <v>S12</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1.163</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1.0609999999999999</v>
+      </c>
+      <c r="F64">
+        <f>(E64/D64)*AVERAGE($D$2:$D$97)</f>
+        <v>1.0548800157638294</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>0.10811998423617064</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" t="str">
+        <f>B70</f>
+        <v>S12</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1.1659999999999999</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1.054</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>1.0452241995425962</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>0.12077580045740377</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" t="str">
+        <f>B69</f>
+        <v>S12</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1.1890000000000001</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1.0629999999999999</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>1.033757814690216</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>0.15524218530978406</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" t="str">
+        <f>B68</f>
+        <v>S12</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1.204</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F97" si="2">(E67/D67)*AVERAGE($D$2:$D$97)</f>
+        <v>0.98438451688815076</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G97" si="3">D67-F67</f>
+        <v>0.2196154831118492</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" t="str">
+        <f>B67</f>
+        <v>S12</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1.177</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="2"/>
+        <v>0.9892826748796375</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="3"/>
+        <v>0.18771732512036254</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" t="str">
+        <f>B66</f>
+        <v>S11</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1.1970000000000001</v>
+      </c>
+      <c r="E69" s="2">
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="2"/>
+        <v>1.0509986076301869</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="3"/>
+        <v>0.14600139236981313</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" t="str">
+        <f>B65</f>
+        <v>S11</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="E70" s="2">
+        <v>1.083</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="2"/>
+        <v>1.0540941708754212</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="3"/>
+        <v>0.13390582912457871</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" t="str">
+        <f>B64</f>
+        <v>S11</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1.0820000000000001</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="2"/>
+        <v>1.0557869901547119</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="3"/>
+        <v>0.12921300984528816</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72" t="str">
+        <f>B63</f>
+        <v>S11</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1.177</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1.087</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="2"/>
+        <v>1.0678751416029455</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="3"/>
+        <v>0.10912485839705455</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" t="str">
+        <f>B62</f>
+        <v>S11</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1.2789999999999999</v>
+      </c>
+      <c r="E73" s="2">
+        <v>1.181</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="2"/>
+        <v>1.0676938689080013</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="3"/>
+        <v>0.21130613109199858</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" t="str">
+        <f>B85</f>
+        <v>C7</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1.101</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="2"/>
+        <v>1.0701736678776872</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="3"/>
+        <v>3.0826332122312783E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" t="str">
+        <f>B84</f>
+        <v>H2O</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1.163</v>
+      </c>
+      <c r="E75" s="2">
+        <v>1.0660000000000001</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="2"/>
+        <v>1.0598511751218116</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="3"/>
+        <v>0.10314882487818844</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" t="str">
+        <f>B83</f>
+        <v>S14</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1.171</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1.071</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="2"/>
+        <v>1.0575477156276689</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="3"/>
+        <v>0.11345228437233112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" t="str">
+        <f>B82</f>
+        <v>S14</v>
+      </c>
+      <c r="D77" s="2">
+        <v>1.216</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1.107</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="2"/>
+        <v>1.0526438116776318</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="3"/>
+        <v>0.1633561883223682</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" t="str">
+        <f>B81</f>
+        <v>S14</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1.1679999999999999</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1.083</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="2"/>
+        <v>1.0721437285958908</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="3"/>
+        <v>9.5856271404109128E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" t="str">
+        <f>B80</f>
+        <v>S14</v>
+      </c>
+      <c r="D79" s="2">
+        <v>1.1819999999999999</v>
+      </c>
+      <c r="E79" s="2">
+        <v>1.077</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="2"/>
+        <v>1.0535754018612524</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="3"/>
+        <v>0.12842459813874751</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" t="str">
+        <f>B79</f>
+        <v>S14</v>
+      </c>
+      <c r="D80" s="2">
+        <v>1.169</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="2"/>
+        <v>1.0484766181921874</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="3"/>
+        <v>0.12052338180781264</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" t="str">
+        <f>B78</f>
+        <v>S13</v>
+      </c>
+      <c r="D81" s="2">
+        <v>1.159</v>
+      </c>
+      <c r="E81" s="2">
+        <v>1.0660000000000001</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="2"/>
+        <v>1.0635089876330173</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="3"/>
+        <v>9.5491012366982764E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" t="str">
+        <f>B77</f>
+        <v>S13</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1.147</v>
+      </c>
+      <c r="E82" s="2">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="2"/>
+        <v>1.0574977840743971</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="3"/>
+        <v>8.9502215925602924E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" t="str">
+        <f>B76</f>
+        <v>S13</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1.169</v>
+      </c>
+      <c r="E83" s="2">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="2"/>
+        <v>1.0781504847447965</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="3"/>
+        <v>9.0849515255203572E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" t="str">
+        <f>B75</f>
+        <v>S13</v>
+      </c>
+      <c r="D84" s="2">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="E84" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="2"/>
+        <v>1.0702699682814305</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="3"/>
+        <v>8.5730031718569411E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C85" t="str">
+        <f>B74</f>
+        <v>S13</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1.252</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1.123</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="2"/>
+        <v>1.0371529885516511</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="3"/>
+        <v>0.21484701144834895</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" t="str">
+        <f>B97</f>
+        <v>C8</v>
+      </c>
+      <c r="D86" s="2">
+        <v>1.202</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1.105</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="2"/>
+        <v>1.0629802759290075</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="3"/>
+        <v>0.1390197240709925</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>101</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C87" t="str">
+        <f>B96</f>
+        <v>H2O</v>
+      </c>
+      <c r="D87" s="2">
+        <v>1.204</v>
+      </c>
+      <c r="E87" s="2">
+        <v>1.119</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="2"/>
+        <v>1.0746597799003326</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="3"/>
+        <v>0.12934022009966739</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>102</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" t="str">
+        <f>B95</f>
+        <v>S16</v>
+      </c>
+      <c r="D88" s="2">
+        <v>1.284</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1.1830000000000001</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="2"/>
+        <v>1.0653372598650055</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="3"/>
+        <v>0.21866274013499454</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>103</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="C89" t="str">
+        <f>B94</f>
+        <v>S16</v>
+      </c>
+      <c r="D89" s="2">
+        <v>1.27</v>
+      </c>
+      <c r="E89" s="2">
+        <v>1.1679999999999999</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="2"/>
+        <v>1.0634241469816275</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="3"/>
+        <v>0.20657585301837256</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>104</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="C90" t="str">
+        <f>B93</f>
+        <v>S16</v>
+      </c>
+      <c r="D90" s="2">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="E90" s="2">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="2"/>
+        <v>1.0643240669240672</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="3"/>
+        <v>0.2306759330759327</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>105</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C91" t="str">
+        <f>B92</f>
+        <v>S16</v>
+      </c>
+      <c r="D91" s="2">
+        <v>1.3129999999999999</v>
+      </c>
+      <c r="E91" s="2">
+        <v>1.208</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="2"/>
+        <v>1.0638235592790051</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="3"/>
+        <v>0.24917644072099487</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>107</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92" t="str">
+        <f>B91</f>
+        <v>S16</v>
+      </c>
+      <c r="D92" s="2">
+        <v>1.262</v>
+      </c>
+      <c r="E92" s="2">
+        <v>1.169</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="2"/>
+        <v>1.0710815834653991</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="3"/>
+        <v>0.19091841653460095</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>108</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C93" t="str">
+        <f>B90</f>
+        <v>X</v>
+      </c>
+      <c r="D93" s="2">
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="E93" s="2">
+        <v>1.044</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="2"/>
+        <v>1.0720857015985794</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="3"/>
+        <v>5.391429840142048E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>109</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94" t="str">
+        <f>B89</f>
+        <v>X</v>
+      </c>
+      <c r="D94" s="2">
+        <v>1.256</v>
+      </c>
+      <c r="E94" s="2">
+        <v>1.1679999999999999</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="2"/>
+        <v>1.0752776008492571</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="3"/>
+        <v>0.18072239915074295</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>110</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95" t="str">
+        <f>B88</f>
+        <v>S15</v>
+      </c>
+      <c r="D95" s="2">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="E95" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F95">
+        <f>(E95/D95)*AVERAGE($D$2:$D$97)</f>
+        <v>1.0998638682106425</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="3"/>
+        <v>0.10913613178935755</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>111</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" t="str">
+        <f>B87</f>
+        <v>S15</v>
+      </c>
+      <c r="D96" s="2">
+        <v>1.167</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1.083</v>
+      </c>
+      <c r="F96">
+        <f>(E96/D96)*AVERAGE($D$2:$D$97)</f>
+        <v>1.0730624464438734</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="3"/>
+        <v>9.3937553556126652E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C97" t="str">
+        <f>B86</f>
+        <v>S15</v>
+      </c>
+      <c r="D97" s="2">
+        <v>1.2070000000000001</v>
+      </c>
+      <c r="E97" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="2"/>
+        <v>1.0921064623032313</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="3"/>
+        <v>0.1148935376967688</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89558D4-CC6B-F546-9DDE-CC9AC0EE832B}">
+  <dimension ref="A1:K98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="12" width="86.6640625" customWidth="1"/>
+    <col min="12" max="12" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -27136,347 +29808,344 @@
         <v>122</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>493</v>
+        <v>585</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>509</v>
+        <v>478</v>
       </c>
       <c r="K1" s="13"/>
-      <c r="L1" s="24" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="C2" t="str">
         <f>B13</f>
         <v>C1</v>
       </c>
       <c r="D2" s="3">
-        <v>1.196</v>
+        <v>1.3109999999999999</v>
       </c>
       <c r="E2" s="3">
-        <v>0.312</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="F2">
         <f>(E2/D2)*AVERAGE($D$2:$D$97)</f>
-        <v>0.38221739130434779</v>
+        <v>0.32514967105263171</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G65" si="0">D2-F2</f>
-        <v>0.81378260869565211</v>
+        <v>0.98585032894736824</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>510</v>
+        <v>479</v>
       </c>
       <c r="K2" s="13"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="C3" t="str">
         <f>B12</f>
         <v>H2O</v>
       </c>
       <c r="D3" s="3">
-        <v>1.4770000000000001</v>
+        <v>1.3109999999999999</v>
       </c>
       <c r="E3" s="3">
-        <v>0.876</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" si="1">(E3/D3)*AVERAGE($D$2:$D$97)</f>
-        <v>0.86898171970209859</v>
+        <v>0.77332894736842139</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>0.6080182802979015</v>
+        <v>0.53767105263157855</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>511</v>
+        <v>480</v>
       </c>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="C4" t="str">
         <f>B11</f>
-        <v>S190</v>
+        <v>S175</v>
       </c>
       <c r="D4" s="3">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="E4" s="3">
-        <v>0.82599999999999996</v>
+        <v>1.103</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>0.80147527593818968</v>
+        <v>0.98051625434027823</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0.70852472406181033</v>
+        <v>0.45948374565972172</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>496</v>
+        <v>465</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>512</v>
+        <v>481</v>
       </c>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="C5" t="str">
         <f>B10</f>
-        <v>S190</v>
+        <v>S175</v>
       </c>
       <c r="D5" s="3">
-        <v>1.518</v>
+        <v>1.381</v>
       </c>
       <c r="E5" s="3">
-        <v>0.91700000000000004</v>
+        <v>1.036</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>0.88508421168203766</v>
+        <v>0.96030204561911703</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.63291578831796236</v>
+        <v>0.42069795438088298</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="C6" t="str">
         <f>B9</f>
-        <v>S190</v>
+        <v>S175</v>
       </c>
       <c r="D6" s="3">
-        <v>1.4770000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="E6" s="3">
-        <v>0.90200000000000002</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>0.89477341457910164</v>
+        <v>0.92356393518518543</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.58222658542089845</v>
+        <v>0.42643606481481466</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>514</v>
+        <v>483</v>
       </c>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="C7" t="str">
         <f>B8</f>
-        <v>S190</v>
+        <v>S175</v>
       </c>
       <c r="D7" s="3">
-        <v>1.454</v>
+        <v>1.393</v>
       </c>
       <c r="E7" s="3">
-        <v>0.85899999999999999</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>0.86559708849151751</v>
+        <v>0.87759478194544172</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.58840291150848245</v>
+        <v>0.5154052180545583</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>515</v>
+        <v>484</v>
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="C8" t="str">
         <f>B7</f>
-        <v>S190</v>
+        <v>S175</v>
       </c>
       <c r="D8" s="3">
-        <v>1.4950000000000001</v>
+        <v>1.1160000000000001</v>
       </c>
       <c r="E8" s="3">
-        <v>0.92700000000000005</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>0.90850133779264197</v>
+        <v>0.95662920026881737</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.58649866220735813</v>
+        <v>0.15937079973118273</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>516</v>
+        <v>485</v>
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="C9" t="str">
         <f>B6</f>
-        <v>S189</v>
+        <v>S174</v>
       </c>
       <c r="D9" s="3">
-        <v>1.4239999999999999</v>
+        <v>1.1439999999999999</v>
       </c>
       <c r="E9" s="3">
-        <v>1.0149999999999999</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>1.0443428136704118</v>
+        <v>0.9332151988636368</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.37965718632958811</v>
+        <v>0.21078480113636311</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>517</v>
+        <v>486</v>
       </c>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="C10" t="str">
         <f>B5</f>
-        <v>S189</v>
+        <v>S174</v>
       </c>
       <c r="D10" s="3">
-        <v>1.425</v>
+        <v>1.2090000000000001</v>
       </c>
       <c r="E10" s="3">
-        <v>1.0589999999999999</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>1.0888501754385962</v>
+        <v>0.96774663978494668</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.33614982456140385</v>
+        <v>0.24125336021505339</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>502</v>
+        <v>471</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>518</v>
+        <v>487</v>
       </c>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="C11" t="str">
         <f>B4</f>
-        <v>S189</v>
+        <v>S174</v>
       </c>
       <c r="D11" s="3">
-        <v>1.44</v>
+        <v>1.155</v>
       </c>
       <c r="E11" s="3">
-        <v>1.081</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>1.0998924768518517</v>
+        <v>0.94316864177489212</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0.34010752314814829</v>
+        <v>0.2118313582251079</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>519</v>
+        <v>488</v>
       </c>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -27485,31 +30154,31 @@
       </c>
       <c r="C12" t="str">
         <f>B3</f>
-        <v>S189</v>
+        <v>S174</v>
       </c>
       <c r="D12" s="3">
-        <v>1.3740000000000001</v>
+        <v>1.1639999999999999</v>
       </c>
       <c r="E12" s="3">
-        <v>0.97699999999999998</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>1.0418252062105773</v>
+        <v>0.93697583762886638</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0.33217479378942283</v>
+        <v>0.22702416237113354</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>520</v>
+        <v>489</v>
       </c>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -27518,308 +30187,318 @@
       </c>
       <c r="C13" t="str">
         <f>B2</f>
-        <v>S189</v>
+        <v>S174</v>
       </c>
       <c r="D13" s="3">
-        <v>1.3939999999999999</v>
+        <v>1.2050000000000001</v>
       </c>
       <c r="E13" s="3">
-        <v>1.0389999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>1.0920431611669057</v>
+        <v>0.95608661825726182</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0.30195683883309421</v>
+        <v>0.24891338174273825</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>505</v>
+        <v>474</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="K13" s="13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="C14" t="str">
         <f>B25</f>
         <v>C2</v>
       </c>
       <c r="D14" s="3">
-        <v>1.355</v>
+        <v>1.2909999999999999</v>
       </c>
       <c r="E14" s="3">
-        <v>0.41499999999999998</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>0.44874108241082405</v>
+        <v>0.46305482668474074</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>0.90625891758917598</v>
+        <v>0.82794517331525919</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>506</v>
+        <v>475</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>522</v>
+        <v>491</v>
       </c>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="C15" t="str">
         <f>B24</f>
         <v>H2O</v>
       </c>
       <c r="D15" s="3">
-        <v>1.496</v>
+        <v>1.331</v>
       </c>
       <c r="E15" s="3">
-        <v>0.92200000000000004</v>
+        <v>0.86</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>0.90299710338680916</v>
+        <v>0.8271079075882799</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>0.59300289661319083</v>
+        <v>0.50389209241172006</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>507</v>
+        <v>476</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>523</v>
+        <v>492</v>
       </c>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="C16" t="str">
         <f>B23</f>
-        <v>S192</v>
+        <v>S177</v>
       </c>
       <c r="D16" s="3">
-        <v>1.5029999999999999</v>
+        <v>1.427</v>
       </c>
       <c r="E16" s="3">
-        <v>0.86199999999999999</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>0.84030184076291858</v>
+        <v>0.87103786352487755</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>0.66269815923708131</v>
-      </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+        <v>0.55596213647512249</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>586</v>
+      </c>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="C17" t="str">
         <f>B22</f>
-        <v>S192</v>
+        <v>S177</v>
       </c>
       <c r="D17" s="3">
-        <v>1.526</v>
+        <v>1.4039999999999999</v>
       </c>
       <c r="E17" s="3">
-        <v>0.88900000000000001</v>
+        <v>1.0649999999999999</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>0.85356039755351665</v>
+        <v>0.97101128472222253</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>0.67243960244648338</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.43298871527777738</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="C18" t="str">
         <f>B21</f>
-        <v>S192</v>
+        <v>S177</v>
       </c>
       <c r="D18" s="3">
-        <v>1.5209999999999999</v>
+        <v>1.365</v>
       </c>
       <c r="E18" s="3">
-        <v>0.88800000000000001</v>
+        <v>1.121</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>0.85540302432610127</v>
+        <v>1.0512711309523812</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>0.66559697567389864</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.31372886904761876</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="C19" t="str">
         <f>B20</f>
-        <v>S192</v>
+        <v>S177</v>
       </c>
       <c r="D19" s="3">
-        <v>1.476</v>
+        <v>1.383</v>
       </c>
       <c r="E19" s="3">
-        <v>0.82499999999999996</v>
+        <v>1.069</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>0.81894478319783193</v>
+        <v>0.98945785882140302</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>0.65705521680216805</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.39354214117859698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="C20" t="str">
         <f>B19</f>
-        <v>S192</v>
+        <v>S177</v>
       </c>
       <c r="D20" s="3">
-        <v>1.522</v>
+        <v>1.2150000000000001</v>
       </c>
       <c r="E20" s="3">
-        <v>0.88100000000000001</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>0.84810238720981157</v>
+        <v>0.98193199588477398</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>0.67389761279018845</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.2330680041152261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="C21" t="str">
         <f>B18</f>
-        <v>S191</v>
+        <v>S176</v>
       </c>
       <c r="D21" s="3">
-        <v>1.456</v>
+        <v>1.222</v>
       </c>
       <c r="E21" s="3">
-        <v>0.79500000000000004</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>0.80000515109890113</v>
+        <v>0.92497772606383011</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>0.65599484890109883</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.29702227393616987</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="C22" t="str">
         <f>B17</f>
-        <v>S191</v>
+        <v>S176</v>
       </c>
       <c r="D22" s="3">
-        <v>1.456</v>
+        <v>1.2629999999999999</v>
       </c>
       <c r="E22" s="3">
-        <v>0.76</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>0.76478479853479853</v>
+        <v>0.91724849069675429</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>0.69121520146520143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.34575150930324561</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="C23" t="str">
         <f>B16</f>
-        <v>S191</v>
+        <v>S176</v>
       </c>
       <c r="D23" s="3">
-        <v>1.44</v>
+        <v>1.103</v>
       </c>
       <c r="E23" s="3">
-        <v>0.77800000000000002</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>0.79159699074074075</v>
+        <v>0.93889015752493243</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>0.6484030092592592</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.16410984247506755</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -27828,24 +30507,24 @@
       </c>
       <c r="C24" t="str">
         <f>B15</f>
-        <v>S191</v>
+        <v>S176</v>
       </c>
       <c r="D24" s="3">
-        <v>1.373</v>
+        <v>1.115</v>
       </c>
       <c r="E24" s="3">
-        <v>0.73499999999999999</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>0.78433903860160215</v>
+        <v>0.95404296524663712</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
-        <v>0.58866096139839785</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.16095703475336287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -27854,203 +30533,203 @@
       </c>
       <c r="C25" t="str">
         <f>B14</f>
-        <v>S191</v>
+        <v>S176</v>
       </c>
       <c r="D25" s="3">
-        <v>1.365</v>
+        <v>1.1990000000000001</v>
       </c>
       <c r="E25" s="3">
-        <v>0.753</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>0.80825677655677652</v>
+        <v>1.0078469557964973</v>
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>0.55674322344322347</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.19115304420350276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="C26" t="str">
         <f>B37</f>
         <v>C3</v>
       </c>
       <c r="D26" s="3">
-        <v>1.488</v>
+        <v>1.3120000000000001</v>
       </c>
       <c r="E26" s="3">
-        <v>0.61299999999999999</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>0.60359352598566307</v>
+        <v>0.53955171017530512</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
-        <v>0.88440647401433692</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.77244828982469493</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="C27" t="str">
         <f>B36</f>
         <v>H2O</v>
       </c>
       <c r="D27" s="3">
-        <v>1.528</v>
+        <v>1.306</v>
       </c>
       <c r="E27" s="3">
-        <v>1.143</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>1.0959983638743456</v>
+        <v>0.92919515696784105</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
-        <v>0.43200163612565445</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.376804843032159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="C28" t="str">
         <f>B35</f>
-        <v>S194</v>
+        <v>S179</v>
       </c>
       <c r="D28" s="3">
-        <v>1.524</v>
+        <v>1.4490000000000001</v>
       </c>
       <c r="E28" s="3">
-        <v>0.82299999999999995</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>0.7912284558180227</v>
+        <v>0.96294146825396865</v>
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
-        <v>0.73277154418197732</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.48605853174603142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="C29" t="str">
         <f>B34</f>
-        <v>S194</v>
+        <v>S179</v>
       </c>
       <c r="D29" s="3">
-        <v>1.5049999999999999</v>
+        <v>1.413</v>
       </c>
       <c r="E29" s="3">
-        <v>0.82199999999999995</v>
+        <v>1.0740000000000001</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>0.80024385382059793</v>
+        <v>0.97297996284501109</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
-        <v>0.70475614617940197</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.44002003715498894</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="C30" t="str">
         <f>B33</f>
-        <v>S194</v>
+        <v>S179</v>
       </c>
       <c r="D30" s="3">
-        <v>1.516</v>
+        <v>1.341</v>
       </c>
       <c r="E30" s="3">
-        <v>0.81100000000000005</v>
+        <v>1.012</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>0.78380617854001755</v>
+        <v>0.96603644668158128</v>
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
-        <v>0.73219382145998246</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.37496355331841869</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="C31" t="str">
         <f>B32</f>
-        <v>S194</v>
+        <v>S179</v>
       </c>
       <c r="D31" s="3">
-        <v>1.484</v>
+        <v>1.409</v>
       </c>
       <c r="E31" s="3">
-        <v>1.0189999999999999</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>1.0060679469901166</v>
+        <v>0.9775591731724631</v>
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
-        <v>0.4779320530098834</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.43144082682753693</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="C32" t="str">
         <f>B31</f>
-        <v>S193</v>
+        <v>S178</v>
       </c>
       <c r="D32" s="3">
-        <v>1.494</v>
+        <v>1.171</v>
       </c>
       <c r="E32" s="3">
-        <v>0.79100000000000004</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>0.77573415885765284</v>
+        <v>0.9051388770281813</v>
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
-        <v>0.71826584114234715</v>
+        <v>0.26586112297181874</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -28058,25 +30737,25 @@
         <v>39</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="C33" t="str">
         <f>B30</f>
-        <v>S193</v>
+        <v>S178</v>
       </c>
       <c r="D33" s="3">
-        <v>1.4650000000000001</v>
+        <v>1.1859999999999999</v>
       </c>
       <c r="E33" s="3">
-        <v>0.78900000000000003</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>0.78908976109215001</v>
+        <v>0.96708600337268169</v>
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
-        <v>0.67591023890785007</v>
+        <v>0.21891399662731825</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -28084,25 +30763,25 @@
         <v>15</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="C34" t="str">
         <f>B29</f>
-        <v>S193</v>
+        <v>S178</v>
       </c>
       <c r="D34" s="3">
-        <v>1.4890000000000001</v>
+        <v>1.264</v>
       </c>
       <c r="E34" s="3">
-        <v>0.82399999999999995</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>0.81081083501231244</v>
+        <v>0.99855414359177241</v>
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
-        <v>0.67818916498768766</v>
+        <v>0.2654458564082276</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -28110,25 +30789,25 @@
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="C35" t="str">
         <f>B28</f>
-        <v>S193</v>
+        <v>S178</v>
       </c>
       <c r="D35" s="3">
-        <v>1.409</v>
+        <v>1.274</v>
       </c>
       <c r="E35" s="3">
-        <v>0.752</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>0.78197681570854016</v>
+        <v>0.98971141581632693</v>
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
-        <v>0.62702318429145987</v>
+        <v>0.28428858418367309</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -28140,21 +30819,21 @@
       </c>
       <c r="C36" t="str">
         <f>B27</f>
-        <v>S193</v>
+        <v>S178</v>
       </c>
       <c r="D36" s="3">
-        <v>1.4690000000000001</v>
+        <v>1.1919999999999999</v>
       </c>
       <c r="E36" s="3">
-        <v>0.81599999999999995</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>0.81387066031313804</v>
+        <v>0.9622181208053695</v>
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
-        <v>0.65512933968686204</v>
+        <v>0.22978187919463045</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -28166,21 +30845,21 @@
       </c>
       <c r="C37" t="str">
         <f>B26</f>
-        <v>S193</v>
+        <v>S178</v>
       </c>
       <c r="D37" s="3">
-        <v>1.3160000000000001</v>
+        <v>1.202</v>
       </c>
       <c r="E37" s="3">
-        <v>0.70599999999999996</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>0.78602406281661574</v>
+        <v>1.0308908069883531</v>
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
-        <v>0.52997593718338432</v>
+        <v>0.17110919301164684</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -28188,25 +30867,25 @@
         <v>43</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="C38" t="str">
         <f>B49</f>
         <v>C4</v>
       </c>
       <c r="D38" s="3">
-        <v>1.448</v>
+        <v>1.292</v>
       </c>
       <c r="E38" s="3">
-        <v>0.85499999999999998</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>0.86513639502762418</v>
+        <v>0.70742023026315803</v>
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
-        <v>0.58286360497237577</v>
+        <v>0.584579769736842</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -28214,25 +30893,25 @@
         <v>45</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="C39" t="str">
         <f>B48</f>
         <v>H2O</v>
       </c>
       <c r="D39" s="3">
-        <v>1.5389999999999999</v>
+        <v>1.306</v>
       </c>
       <c r="E39" s="3">
-        <v>1.276</v>
+        <v>1.004</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>1.2147840589127139</v>
+        <v>0.98408432235834642</v>
       </c>
       <c r="G39">
         <f t="shared" si="0"/>
-        <v>0.32421594108728602</v>
+        <v>0.32191567764165363</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -28240,25 +30919,25 @@
         <v>46</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="C40" t="str">
         <f>B47</f>
-        <v>S196</v>
+        <v>S181</v>
       </c>
       <c r="D40" s="3">
-        <v>1.542</v>
+        <v>1.403</v>
       </c>
       <c r="E40" s="3">
-        <v>1.159</v>
+        <v>1.0309999999999999</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
-        <v>1.1012504323389536</v>
+        <v>0.94068186475409854</v>
       </c>
       <c r="G40">
         <f t="shared" si="0"/>
-        <v>0.44074956766104645</v>
+        <v>0.46231813524590148</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -28266,25 +30945,25 @@
         <v>47</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="C41" t="str">
         <f>B46</f>
-        <v>S196</v>
+        <v>S181</v>
       </c>
       <c r="D41" s="3">
-        <v>1.51</v>
+        <v>1.4079999999999999</v>
       </c>
       <c r="E41" s="3">
-        <v>1.0649999999999999</v>
+        <v>1.048</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
-        <v>1.0333791390728475</v>
+        <v>0.95279705255681857</v>
       </c>
       <c r="G41">
         <f t="shared" si="0"/>
-        <v>0.4766208609271525</v>
+        <v>0.45520294744318135</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -28292,25 +30971,25 @@
         <v>48</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="C42" t="str">
         <f>B45</f>
-        <v>S196</v>
+        <v>S181</v>
       </c>
       <c r="D42" s="3">
-        <v>1.504</v>
+        <v>1.331</v>
       </c>
       <c r="E42" s="3">
-        <v>1.095</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
-        <v>1.0667270611702127</v>
+        <v>0.9271302592036067</v>
       </c>
       <c r="G42">
         <f t="shared" si="0"/>
-        <v>0.43727293882978735</v>
+        <v>0.40386974079639326</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -28318,25 +30997,25 @@
         <v>49</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="C43" t="str">
         <f>B44</f>
-        <v>S196</v>
+        <v>S181</v>
       </c>
       <c r="D43" s="3">
-        <v>1.51</v>
+        <v>1.2869999999999999</v>
       </c>
       <c r="E43" s="3">
-        <v>1.141</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
-        <v>1.1071226269315673</v>
+        <v>0.93396117424242464</v>
       </c>
       <c r="G43">
         <f t="shared" si="0"/>
-        <v>0.40287737306843274</v>
+        <v>0.35303882575757528</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -28344,25 +31023,25 @@
         <v>51</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="C44" t="str">
         <f>B43</f>
-        <v>S196</v>
+        <v>S181</v>
       </c>
       <c r="D44" s="3">
-        <v>1.506</v>
+        <v>1.2010000000000001</v>
       </c>
       <c r="E44" s="3">
-        <v>1.097</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="F44">
         <f t="shared" si="1"/>
-        <v>1.0672561974324921</v>
+        <v>0.91557080037468808</v>
       </c>
       <c r="G44">
         <f t="shared" si="0"/>
-        <v>0.43874380256750789</v>
+        <v>0.28542919962531199</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -28370,25 +31049,25 @@
         <v>52</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="C45" t="str">
         <f>B42</f>
-        <v>S195</v>
+        <v>S180</v>
       </c>
       <c r="D45" s="3">
-        <v>1.4750000000000001</v>
+        <v>1.0780000000000001</v>
       </c>
       <c r="E45" s="3">
-        <v>1.1060000000000001</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
-        <v>1.0986266666666666</v>
+        <v>0.93335221474953645</v>
       </c>
       <c r="G45">
         <f t="shared" si="0"/>
-        <v>0.37637333333333345</v>
+        <v>0.14464778525046362</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -28396,25 +31075,25 @@
         <v>53</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="C46" t="str">
         <f>B41</f>
-        <v>S195</v>
+        <v>S180</v>
       </c>
       <c r="D46" s="3">
-        <v>1.4470000000000001</v>
+        <v>1.2050000000000001</v>
       </c>
       <c r="E46" s="3">
-        <v>1.0640000000000001</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
-        <v>1.0773582123934575</v>
+        <v>0.89447214730290481</v>
       </c>
       <c r="G46">
         <f t="shared" si="0"/>
-        <v>0.36964178760654254</v>
+        <v>0.31052785269709526</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -28422,25 +31101,25 @@
         <v>54</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="C47" t="str">
         <f>B40</f>
-        <v>S195</v>
+        <v>S180</v>
       </c>
       <c r="D47" s="3">
-        <v>1.4219999999999999</v>
+        <v>1.232</v>
       </c>
       <c r="E47" s="3">
-        <v>1.0469999999999999</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
-        <v>1.0787830520393811</v>
+        <v>0.90188423295454589</v>
       </c>
       <c r="G47">
         <f t="shared" si="0"/>
-        <v>0.34321694796061886</v>
+        <v>0.33011576704545409</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -28452,21 +31131,21 @@
       </c>
       <c r="C48" t="str">
         <f>B39</f>
-        <v>S195</v>
+        <v>S180</v>
       </c>
       <c r="D48" s="3">
-        <v>1.464</v>
+        <v>1.25</v>
       </c>
       <c r="E48" s="3">
-        <v>1.081</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>1.0818614526411656</v>
+        <v>0.96058235000000025</v>
       </c>
       <c r="G48">
         <f t="shared" si="0"/>
-        <v>0.38213854735883435</v>
+        <v>0.28941764999999975</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -28478,21 +31157,21 @@
       </c>
       <c r="C49" t="str">
         <f>B38</f>
-        <v>S195</v>
+        <v>S180</v>
       </c>
       <c r="D49" s="3">
-        <v>1.4139999999999999</v>
+        <v>1.278</v>
       </c>
       <c r="E49" s="3">
-        <v>1.0620000000000001</v>
+        <v>1.0189999999999999</v>
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
-        <v>1.1004292786421499</v>
+        <v>1.0206694297730832</v>
       </c>
       <c r="G49">
         <f t="shared" si="0"/>
-        <v>0.31357072135785002</v>
+        <v>0.25733057022691685</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -28500,25 +31179,25 @@
         <v>57</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="C50" t="str">
         <f>B61</f>
         <v>C5</v>
       </c>
       <c r="D50" s="3">
-        <v>1.347</v>
+        <v>1.3220000000000001</v>
       </c>
       <c r="E50" s="3">
-        <v>1.0589999999999999</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>1.1519016332590941</v>
+        <v>0.85500966811649048</v>
       </c>
       <c r="G50">
         <f t="shared" si="0"/>
-        <v>0.19509836674090586</v>
+        <v>0.46699033188350958</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -28526,25 +31205,25 @@
         <v>59</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="C51" t="str">
         <f>B60</f>
         <v>H2O</v>
       </c>
       <c r="D51" s="3">
-        <v>1.5409999999999999</v>
+        <v>1.3220000000000001</v>
       </c>
       <c r="E51" s="3">
-        <v>1.302</v>
+        <v>1.07</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
-        <v>1.2379279688513951</v>
+        <v>1.0360819307866873</v>
       </c>
       <c r="G51">
         <f t="shared" si="0"/>
-        <v>0.30307203114860481</v>
+        <v>0.28591806921331275</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -28552,25 +31231,25 @@
         <v>60</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="C52" t="str">
         <f>B59</f>
-        <v>S198</v>
+        <v>S183</v>
       </c>
       <c r="D52" s="3">
-        <v>1.548</v>
+        <v>1.4039999999999999</v>
       </c>
       <c r="E52" s="3">
-        <v>1.018</v>
+        <v>1.01</v>
       </c>
       <c r="F52">
         <f t="shared" si="1"/>
-        <v>0.96352691645133504</v>
+        <v>0.92086516203703739</v>
       </c>
       <c r="G52">
         <f t="shared" si="0"/>
-        <v>0.58447308354866501</v>
+        <v>0.48313483796296253</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -28578,25 +31257,25 @@
         <v>61</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="C53" t="str">
         <f>B58</f>
-        <v>S198</v>
+        <v>S183</v>
       </c>
       <c r="D53" s="3">
-        <v>1.5289999999999999</v>
+        <v>1.381</v>
       </c>
       <c r="E53" s="3">
-        <v>1.169</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="F53">
         <f t="shared" si="1"/>
-        <v>1.1201960976673206</v>
+        <v>0.91488235427226683</v>
       </c>
       <c r="G53">
         <f t="shared" si="0"/>
-        <v>0.40880390233267927</v>
+        <v>0.46611764572773318</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -28604,25 +31283,25 @@
         <v>62</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="C54" t="str">
         <f>B57</f>
-        <v>S198</v>
+        <v>S183</v>
       </c>
       <c r="D54" s="3">
-        <v>1.524</v>
+        <v>1.423</v>
       </c>
       <c r="E54" s="3">
-        <v>1.1990000000000001</v>
+        <v>1.002</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
-        <v>1.152713145231846</v>
+        <v>0.90137311138439946</v>
       </c>
       <c r="G54">
         <f t="shared" si="0"/>
-        <v>0.37128685476815404</v>
+        <v>0.52162688861560058</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -28630,25 +31309,25 @@
         <v>63</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
       <c r="C55" t="str">
         <f>B56</f>
-        <v>S198</v>
+        <v>S183</v>
       </c>
       <c r="D55" s="3">
-        <v>1.512</v>
+        <v>1.401</v>
       </c>
       <c r="E55" s="3">
-        <v>1.1679999999999999</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="F55">
         <f t="shared" si="1"/>
-        <v>1.131821869488536</v>
+        <v>0.90821783547466128</v>
       </c>
       <c r="G55">
         <f t="shared" si="0"/>
-        <v>0.38017813051146399</v>
+        <v>0.49278216452533874</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -28656,25 +31335,25 @@
         <v>65</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
       <c r="C56" t="str">
         <f>B55</f>
-        <v>S198</v>
+        <v>S183</v>
       </c>
       <c r="D56" s="3">
-        <v>1.4950000000000001</v>
+        <v>1.238</v>
       </c>
       <c r="E56" s="3">
-        <v>1.161</v>
+        <v>0.873</v>
       </c>
       <c r="F56">
         <f t="shared" si="1"/>
-        <v>1.1378317725752507</v>
+        <v>0.90268323404685014</v>
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
-        <v>0.35716822742474941</v>
+        <v>0.33531676595314985</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -28682,25 +31361,25 @@
         <v>66</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
       <c r="C57" t="str">
         <f>B54</f>
-        <v>S197</v>
+        <v>S182</v>
       </c>
       <c r="D57" s="3">
-        <v>1.508</v>
+        <v>1.2130000000000001</v>
       </c>
       <c r="E57" s="3">
-        <v>1.095</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
-        <v>1.0638975464190981</v>
+        <v>0.87485384892827722</v>
       </c>
       <c r="G57">
         <f t="shared" si="0"/>
-        <v>0.44410245358090195</v>
+        <v>0.33814615107172286</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -28708,25 +31387,25 @@
         <v>67</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
       <c r="C58" t="str">
         <f>B53</f>
-        <v>S197</v>
+        <v>S182</v>
       </c>
       <c r="D58" s="3">
-        <v>1.4650000000000001</v>
+        <v>1.208</v>
       </c>
       <c r="E58" s="3">
-        <v>1.103</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="F58">
         <f t="shared" si="1"/>
-        <v>1.1031254835039817</v>
+        <v>0.87635557222682148</v>
       </c>
       <c r="G58">
         <f t="shared" si="0"/>
-        <v>0.36187451649601843</v>
+        <v>0.33164442777317849</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -28734,25 +31413,25 @@
         <v>68</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
       <c r="C59" t="str">
         <f>B52</f>
-        <v>S197</v>
+        <v>S182</v>
       </c>
       <c r="D59" s="3">
-        <v>1.4139999999999999</v>
+        <v>1.3480000000000001</v>
       </c>
       <c r="E59" s="3">
-        <v>0.95499999999999996</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="F59">
         <f t="shared" si="1"/>
-        <v>0.98955740216878829</v>
+        <v>0.91543796364985186</v>
       </c>
       <c r="G59">
         <f t="shared" si="0"/>
-        <v>0.42444259783121163</v>
+        <v>0.43256203635014823</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -28764,21 +31443,21 @@
       </c>
       <c r="C60" t="str">
         <f>B51</f>
-        <v>S197</v>
+        <v>S182</v>
       </c>
       <c r="D60" s="3">
-        <v>1.5109999999999999</v>
+        <v>1.1830000000000001</v>
       </c>
       <c r="E60" s="3">
-        <v>1.101</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
-        <v>1.0676032428855062</v>
+        <v>0.88621875000000028</v>
       </c>
       <c r="G60">
         <f t="shared" si="0"/>
-        <v>0.44339675711449367</v>
+        <v>0.29678124999999977</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -28790,21 +31469,21 @@
       </c>
       <c r="C61" t="str">
         <f>B50</f>
-        <v>S197</v>
+        <v>S182</v>
       </c>
       <c r="D61" s="3">
-        <v>1.4330000000000001</v>
+        <v>1.1910000000000001</v>
       </c>
       <c r="E61" s="3">
-        <v>1.0609999999999999</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="F61">
         <f t="shared" si="1"/>
-        <v>1.0848163526401486</v>
+        <v>0.92325821263644026</v>
       </c>
       <c r="G61">
         <f t="shared" si="0"/>
-        <v>0.34818364735985141</v>
+        <v>0.2677417873635598</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -28812,25 +31491,25 @@
         <v>71</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>503</v>
+        <v>473</v>
       </c>
       <c r="C62" t="str">
         <f>B73</f>
         <v>C6</v>
       </c>
       <c r="D62" s="3">
-        <v>1.4059999999999999</v>
+        <v>1.327</v>
       </c>
       <c r="E62" s="3">
-        <v>1.1240000000000001</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="F62">
         <f t="shared" si="1"/>
-        <v>1.1712996680891419</v>
+        <v>0.95307658251695593</v>
       </c>
       <c r="G62">
         <f t="shared" si="0"/>
-        <v>0.23470033191085804</v>
+        <v>0.37392341748304403</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -28838,25 +31517,25 @@
         <v>73</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>503</v>
+        <v>473</v>
       </c>
       <c r="C63" t="str">
         <f>B72</f>
         <v>H2O</v>
       </c>
       <c r="D63" s="3">
-        <v>1.4990000000000001</v>
+        <v>1.3180000000000001</v>
       </c>
       <c r="E63" s="3">
-        <v>1.3160000000000001</v>
+        <v>1.107</v>
       </c>
       <c r="F63">
         <f t="shared" si="1"/>
-        <v>1.2862970869468533</v>
+        <v>1.0751622012518971</v>
       </c>
       <c r="G63">
         <f t="shared" si="0"/>
-        <v>0.21270291305314681</v>
+        <v>0.24283779874810296</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -28864,25 +31543,25 @@
         <v>74</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>503</v>
+        <v>473</v>
       </c>
       <c r="C64" t="str">
         <f>B71</f>
-        <v>S200</v>
+        <v>S185</v>
       </c>
       <c r="D64" s="3">
-        <v>1.536</v>
+        <v>1.4470000000000001</v>
       </c>
       <c r="E64" s="3">
-        <v>1.1060000000000001</v>
+        <v>1.131</v>
       </c>
       <c r="F64">
         <f t="shared" si="1"/>
-        <v>1.0549963107638889</v>
+        <v>1.0005432144091226</v>
       </c>
       <c r="G64">
         <f t="shared" si="0"/>
-        <v>0.48100368923611114</v>
+        <v>0.44645678559087743</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -28890,25 +31569,25 @@
         <v>75</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>503</v>
+        <v>473</v>
       </c>
       <c r="C65" t="str">
         <f>B70</f>
-        <v>S200</v>
+        <v>S185</v>
       </c>
       <c r="D65" s="3">
-        <v>1.5089999999999999</v>
+        <v>1.4330000000000001</v>
       </c>
       <c r="E65" s="3">
-        <v>1.0640000000000001</v>
+        <v>1.1080000000000001</v>
       </c>
       <c r="F65">
         <f t="shared" si="1"/>
-        <v>1.0330929975701348</v>
+        <v>0.98977241800418747</v>
       </c>
       <c r="G65">
         <f t="shared" si="0"/>
-        <v>0.47590700242986506</v>
+        <v>0.44322758199581258</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -28916,25 +31595,25 @@
         <v>76</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>503</v>
+        <v>473</v>
       </c>
       <c r="C66" t="str">
         <f>B69</f>
-        <v>S200</v>
+        <v>S185</v>
       </c>
       <c r="D66" s="3">
-        <v>1.53</v>
+        <v>1.3640000000000001</v>
       </c>
       <c r="E66" s="3">
-        <v>1.0840000000000001</v>
+        <v>1.0509999999999999</v>
       </c>
       <c r="F66">
         <f t="shared" si="1"/>
-        <v>1.0380657952069716</v>
+        <v>0.98634789681085067</v>
       </c>
       <c r="G66">
         <f t="shared" ref="G66:G97" si="2">D66-F66</f>
-        <v>0.49193420479302841</v>
+        <v>0.37765210318914944</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -28942,25 +31621,25 @@
         <v>77</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="C67" t="str">
         <f>B68</f>
-        <v>S200</v>
+        <v>S185</v>
       </c>
       <c r="D67" s="3">
-        <v>1.496</v>
+        <v>1.4239999999999999</v>
       </c>
       <c r="E67" s="3">
-        <v>1.0720000000000001</v>
+        <v>1.103</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F97" si="3">(E67/D67)*AVERAGE($D$2:$D$97)</f>
-        <v>1.0499055258467023</v>
+        <v>0.99153329090589926</v>
       </c>
       <c r="G67">
         <f t="shared" si="2"/>
-        <v>0.44609447415329773</v>
+        <v>0.43246670909410068</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -28968,25 +31647,25 @@
         <v>79</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="C68" t="str">
         <f>B67</f>
-        <v>S200</v>
+        <v>S185</v>
       </c>
       <c r="D68" s="3">
-        <v>1.3</v>
+        <v>1.151</v>
       </c>
       <c r="E68" s="3">
-        <v>0.81799999999999995</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="F68">
         <f t="shared" si="3"/>
-        <v>0.92192794871794848</v>
+        <v>0.96312874674196391</v>
       </c>
       <c r="G68">
         <f t="shared" si="2"/>
-        <v>0.37807205128205157</v>
+        <v>0.18787125325803611</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -28994,25 +31673,25 @@
         <v>80</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="C69" t="str">
         <f>B66</f>
-        <v>S199</v>
+        <v>S184</v>
       </c>
       <c r="D69" s="3">
-        <v>1.49</v>
+        <v>1.2010000000000001</v>
       </c>
       <c r="E69" s="3">
-        <v>1.054</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="F69">
         <f t="shared" si="3"/>
-        <v>1.0364333333333333</v>
+        <v>0.98165390820149911</v>
       </c>
       <c r="G69">
         <f t="shared" si="2"/>
-        <v>0.45356666666666667</v>
+        <v>0.21934609179850095</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -29020,25 +31699,25 @@
         <v>81</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="C70" t="str">
         <f>B65</f>
-        <v>S199</v>
+        <v>S184</v>
       </c>
       <c r="D70" s="3">
-        <v>1.448</v>
+        <v>1.2250000000000001</v>
       </c>
       <c r="E70" s="3">
-        <v>1.0780000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="F70">
         <f t="shared" si="3"/>
-        <v>1.0907801565377533</v>
+        <v>0.91435267857142877</v>
       </c>
       <c r="G70">
         <f t="shared" si="2"/>
-        <v>0.35721984346224667</v>
+        <v>0.31064732142857132</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -29046,25 +31725,25 @@
         <v>82</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="C71" t="str">
         <f>B64</f>
-        <v>S199</v>
+        <v>S184</v>
       </c>
       <c r="D71" s="3">
-        <v>1.49</v>
+        <v>1.181</v>
       </c>
       <c r="E71" s="3">
-        <v>1.115</v>
+        <v>0.83799999999999997</v>
       </c>
       <c r="F71">
         <f>(E71/D71)*AVERAGE($D$2:$D$97)</f>
-        <v>1.0964166666666666</v>
+        <v>0.90831377011007652</v>
       </c>
       <c r="G71">
         <f t="shared" si="2"/>
-        <v>0.3935833333333334</v>
+        <v>0.27268622988992353</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -29076,21 +31755,21 @@
       </c>
       <c r="C72" t="str">
         <f>B63</f>
-        <v>S199</v>
+        <v>S184</v>
       </c>
       <c r="D72" s="3">
-        <v>1.4430000000000001</v>
+        <v>1.149</v>
       </c>
       <c r="E72" s="3">
-        <v>1.042</v>
+        <v>0.82099999999999995</v>
       </c>
       <c r="F72">
         <f t="shared" si="3"/>
-        <v>1.058006699006699</v>
+        <v>0.91467099107919958</v>
       </c>
       <c r="G72">
         <f t="shared" si="2"/>
-        <v>0.38499330099330109</v>
+        <v>0.23432900892080044</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -29102,21 +31781,21 @@
       </c>
       <c r="C73" t="str">
         <f>B62</f>
-        <v>S199</v>
+        <v>S184</v>
       </c>
       <c r="D73" s="3">
-        <v>1.403</v>
+        <v>1.2030000000000001</v>
       </c>
       <c r="E73" s="3">
-        <v>0.997</v>
+        <v>0.91</v>
       </c>
       <c r="F73">
         <f t="shared" si="3"/>
-        <v>1.0411768828700403</v>
+        <v>0.96831696799667533</v>
       </c>
       <c r="G73">
         <f t="shared" si="2"/>
-        <v>0.36182311712995974</v>
+        <v>0.23468303200332474</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -29124,25 +31803,25 @@
         <v>85</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="C74" t="str">
         <f>B85</f>
         <v>C7</v>
       </c>
       <c r="D74" s="3">
-        <v>1.2430000000000001</v>
+        <v>1.3169999999999999</v>
       </c>
       <c r="E74" s="3">
-        <v>0.95</v>
+        <v>1.0740000000000001</v>
       </c>
       <c r="F74">
         <f t="shared" si="3"/>
-        <v>1.1197975328506298</v>
+        <v>1.0439033314350803</v>
       </c>
       <c r="G74">
         <f t="shared" si="2"/>
-        <v>0.12320246714937033</v>
+        <v>0.27309666856491965</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -29150,25 +31829,25 @@
         <v>87</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="C75" t="str">
         <f>B84</f>
         <v>C9</v>
       </c>
       <c r="D75" s="3">
-        <v>1.5169999999999999</v>
+        <v>1.2909999999999999</v>
       </c>
       <c r="E75" s="3">
-        <v>1.323</v>
+        <v>1.093</v>
       </c>
       <c r="F75">
         <f t="shared" si="3"/>
-        <v>1.2777953197099536</v>
+        <v>1.0837664359024017</v>
       </c>
       <c r="G75">
         <f t="shared" si="2"/>
-        <v>0.23920468029004627</v>
+        <v>0.20723356409759819</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -29176,25 +31855,25 @@
         <v>88</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="C76" t="str">
         <f>B83</f>
-        <v>H2O</v>
+        <v>S187</v>
       </c>
       <c r="D76" s="3">
-        <v>1.524</v>
+        <v>1.4159999999999999</v>
       </c>
       <c r="E76" s="3">
-        <v>1.3360000000000001</v>
+        <v>1.097</v>
       </c>
       <c r="F76">
         <f t="shared" si="3"/>
-        <v>1.2844243219597551</v>
+        <v>0.99171104784604558</v>
       </c>
       <c r="G76">
         <f t="shared" si="2"/>
-        <v>0.23957567804024493</v>
+        <v>0.42428895215395435</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -29202,25 +31881,25 @@
         <v>89</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="C77" t="str">
         <f>B82</f>
-        <v>H2O</v>
+        <v>S187</v>
       </c>
       <c r="D77" s="3">
-        <v>1.4970000000000001</v>
+        <v>1.4179999999999999</v>
       </c>
       <c r="E77" s="3">
-        <v>1.3129999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F77">
         <f t="shared" si="3"/>
-        <v>1.2850793809841905</v>
+        <v>0.99302053949224312</v>
       </c>
       <c r="G77">
         <f t="shared" si="2"/>
-        <v>0.21192061901580961</v>
+        <v>0.42497946050775681</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -29228,25 +31907,25 @@
         <v>90</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="C78" t="str">
         <f>B81</f>
-        <v>H2O</v>
+        <v>S187</v>
       </c>
       <c r="D78" s="3">
-        <v>1.4910000000000001</v>
+        <v>1.415</v>
       </c>
       <c r="E78" s="3">
-        <v>1.298</v>
+        <v>1.087</v>
       </c>
       <c r="F78">
         <f t="shared" si="3"/>
-        <v>1.2755106192711825</v>
+        <v>0.98336530477031825</v>
       </c>
       <c r="G78">
         <f t="shared" si="2"/>
-        <v>0.21548938072881763</v>
+        <v>0.43163469522968179</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -29254,25 +31933,25 @@
         <v>91</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>42</v>
+        <v>476</v>
       </c>
       <c r="C79" t="str">
         <f>B80</f>
-        <v>H2O</v>
+        <v>S187</v>
       </c>
       <c r="D79" s="3">
-        <v>1.476</v>
+        <v>1.4059999999999999</v>
       </c>
       <c r="E79" s="3">
-        <v>1.304</v>
+        <v>1.0940000000000001</v>
       </c>
       <c r="F79">
         <f t="shared" si="3"/>
-        <v>1.2944290876242095</v>
+        <v>0.99603311699857799</v>
       </c>
       <c r="G79">
         <f t="shared" si="2"/>
-        <v>0.18157091237579048</v>
+        <v>0.40996688300142192</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -29280,25 +31959,25 @@
         <v>93</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>42</v>
+        <v>476</v>
       </c>
       <c r="C80" t="str">
         <f>B79</f>
-        <v>H2O</v>
+        <v>S187</v>
       </c>
       <c r="D80" s="3">
-        <v>1.5149999999999999</v>
+        <v>1.165</v>
       </c>
       <c r="E80" s="3">
-        <v>1.3180000000000001</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="F80">
         <f t="shared" si="3"/>
-        <v>1.2746466446644664</v>
+        <v>0.95155466738197458</v>
       </c>
       <c r="G80">
         <f t="shared" si="2"/>
-        <v>0.24035335533553348</v>
+        <v>0.21344533261802545</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -29306,25 +31985,25 @@
         <v>94</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>42</v>
+        <v>476</v>
       </c>
       <c r="C81" t="str">
         <f>B78</f>
-        <v>S201</v>
+        <v>S186</v>
       </c>
       <c r="D81" s="3">
-        <v>1.4770000000000001</v>
+        <v>1.208</v>
       </c>
       <c r="E81" s="3">
-        <v>1.018</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="F81">
         <f t="shared" si="3"/>
-        <v>1.0098440532611146</v>
+        <v>1.024710808153974</v>
       </c>
       <c r="G81">
         <f t="shared" si="2"/>
-        <v>0.4671559467388855</v>
+        <v>0.18328919184602599</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -29332,25 +32011,25 @@
         <v>95</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>42</v>
+        <v>476</v>
       </c>
       <c r="C82" t="str">
         <f>B77</f>
-        <v>S201</v>
+        <v>S186</v>
       </c>
       <c r="D82" s="3">
-        <v>1.5069999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="E82" s="3">
-        <v>0.996</v>
+        <v>0.92</v>
       </c>
       <c r="F82">
         <f t="shared" si="3"/>
-        <v>0.9683516921035169</v>
+        <v>0.98140520833333378</v>
       </c>
       <c r="G82">
         <f t="shared" si="2"/>
-        <v>0.53864830789648299</v>
+        <v>0.21859479166666618</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -29358,25 +32037,25 @@
         <v>96</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>42</v>
+        <v>476</v>
       </c>
       <c r="C83" t="str">
         <f>B76</f>
-        <v>S201</v>
+        <v>S186</v>
       </c>
       <c r="D83" s="3">
-        <v>1.45</v>
+        <v>1.1850000000000001</v>
       </c>
       <c r="E83" s="3">
-        <v>0.96</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="F83">
         <f t="shared" si="3"/>
-        <v>0.97004137931034473</v>
+        <v>0.99274781118143496</v>
       </c>
       <c r="G83">
         <f t="shared" si="2"/>
-        <v>0.47995862068965522</v>
+        <v>0.1922521888185651</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -29388,21 +32067,21 @@
       </c>
       <c r="C84" t="str">
         <f>B75</f>
-        <v>S201</v>
+        <v>S186</v>
       </c>
       <c r="D84" s="3">
-        <v>1.4850000000000001</v>
+        <v>1.157</v>
       </c>
       <c r="E84" s="3">
-        <v>0.99399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="F84">
         <f t="shared" si="3"/>
-        <v>0.9807243546576877</v>
+        <v>0.96255969101123628</v>
       </c>
       <c r="G84">
         <f t="shared" si="2"/>
-        <v>0.5042756453423124</v>
+        <v>0.19444030898876374</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -29414,21 +32093,21 @@
       </c>
       <c r="C85" t="str">
         <f>B74</f>
-        <v>S201</v>
+        <v>S186</v>
       </c>
       <c r="D85" s="3">
-        <v>1.385</v>
+        <v>1.2050000000000001</v>
       </c>
       <c r="E85" s="3">
-        <v>0.91800000000000004</v>
+        <v>0.996</v>
       </c>
       <c r="F85">
         <f t="shared" si="3"/>
-        <v>0.97113574007220205</v>
+        <v>1.0580691908713695</v>
       </c>
       <c r="G85">
         <f t="shared" si="2"/>
-        <v>0.41386425992779796</v>
+        <v>0.14693080912863055</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -29436,25 +32115,25 @@
         <v>99</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>506</v>
+        <v>477</v>
       </c>
       <c r="C86" t="str">
         <f>B97</f>
         <v>C8</v>
       </c>
       <c r="D86" s="3">
-        <v>1.407</v>
+        <v>1.161</v>
       </c>
       <c r="E86" s="3">
-        <v>1.1679999999999999</v>
+        <v>1.014</v>
       </c>
       <c r="F86">
         <f t="shared" si="3"/>
-        <v>1.2162861881070834</v>
+        <v>1.1180146963824293</v>
       </c>
       <c r="G86">
         <f t="shared" si="2"/>
-        <v>0.19071381189291658</v>
+        <v>4.2985303617570692E-2</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -29462,25 +32141,25 @@
         <v>101</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>506</v>
+        <v>477</v>
       </c>
       <c r="C87" t="str">
         <f>B96</f>
         <v>C10</v>
       </c>
       <c r="D87" s="3">
-        <v>1.494</v>
+        <v>1.3580000000000001</v>
       </c>
       <c r="E87" s="3">
-        <v>1.296</v>
+        <v>1.2090000000000001</v>
       </c>
       <c r="F87">
         <f>(E87/D87)*AVERAGE($D$2:$D$97)</f>
-        <v>1.2709879518072289</v>
+        <v>1.1396416375184097</v>
       </c>
       <c r="G87">
         <f t="shared" si="2"/>
-        <v>0.2230120481927711</v>
+        <v>0.21835836248159035</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -29488,25 +32167,25 @@
         <v>102</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>506</v>
+        <v>477</v>
       </c>
       <c r="C88" t="str">
         <f>B95</f>
-        <v>S203</v>
+        <v>S249</v>
       </c>
       <c r="D88" s="3">
-        <v>1.488</v>
+        <v>1.407</v>
       </c>
       <c r="E88" s="3">
-        <v>1.0900000000000001</v>
+        <v>1.0549999999999999</v>
       </c>
       <c r="F88">
         <f t="shared" si="3"/>
-        <v>1.0732739695340501</v>
+        <v>0.95984286158493282</v>
       </c>
       <c r="G88">
         <f t="shared" si="2"/>
-        <v>0.41472603046594991</v>
+        <v>0.44715713841506721</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -29514,25 +32193,25 @@
         <v>103</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>506</v>
+        <v>477</v>
       </c>
       <c r="C89" t="str">
         <f>B94</f>
-        <v>S203</v>
+        <v>S249</v>
       </c>
       <c r="D89" s="3">
-        <v>1.5029999999999999</v>
+        <v>1.4019999999999999</v>
       </c>
       <c r="E89" s="3">
-        <v>1.0820000000000001</v>
+        <v>1.048</v>
       </c>
       <c r="F89">
         <f t="shared" si="3"/>
-        <v>1.0547640275005545</v>
+        <v>0.95687464336661954</v>
       </c>
       <c r="G89">
         <f t="shared" si="2"/>
-        <v>0.44823597249944536</v>
+        <v>0.44512535663338038</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -29540,25 +32219,25 @@
         <v>104</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>506</v>
+        <v>477</v>
       </c>
       <c r="C90" t="str">
         <f>B93</f>
-        <v>S203</v>
+        <v>S249</v>
       </c>
       <c r="D90" s="3">
-        <v>1.46</v>
+        <v>1.397</v>
       </c>
       <c r="E90" s="3">
-        <v>1.044</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="F90">
         <f t="shared" si="3"/>
-        <v>1.0476945205479451</v>
+        <v>0.95755044291338609</v>
       </c>
       <c r="G90">
         <f t="shared" si="2"/>
-        <v>0.41230547945205487</v>
+        <v>0.43944955708661393</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -29566,25 +32245,25 @@
         <v>105</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>507</v>
+        <v>589</v>
       </c>
       <c r="C91" t="str">
         <f>B92</f>
-        <v>S203</v>
+        <v>S249</v>
       </c>
       <c r="D91" s="3">
-        <v>1.3959999999999999</v>
+        <v>1.413</v>
       </c>
       <c r="E91" s="3">
-        <v>0.995</v>
+        <v>1.095</v>
       </c>
       <c r="F91">
         <f t="shared" si="3"/>
-        <v>1.0442985912129894</v>
+        <v>0.99200471072186869</v>
       </c>
       <c r="G91">
         <f t="shared" si="2"/>
-        <v>0.35170140878701051</v>
+        <v>0.42099528927813135</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -29592,25 +32271,25 @@
         <v>107</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>507</v>
+        <v>589</v>
       </c>
       <c r="C92" t="str">
         <f>B91</f>
-        <v>S203</v>
+        <v>S249</v>
       </c>
       <c r="D92" s="3">
-        <v>1.5</v>
+        <v>1.127</v>
       </c>
       <c r="E92" s="3">
-        <v>1.087</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="F92">
         <f t="shared" si="3"/>
-        <v>1.0617574444444444</v>
+        <v>0.94729209183673502</v>
       </c>
       <c r="G92">
         <f t="shared" si="2"/>
-        <v>0.43824255555555558</v>
+        <v>0.17970790816326498</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -29618,25 +32297,25 @@
         <v>108</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>507</v>
+        <v>589</v>
       </c>
       <c r="C93" t="str">
         <f>B90</f>
-        <v>S202</v>
+        <v>S188</v>
       </c>
       <c r="D93" s="3">
-        <v>1.48</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="E93" s="3">
-        <v>1.0329999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F93">
         <f t="shared" si="3"/>
-        <v>1.022646734234234</v>
+        <v>1.0334701834862388</v>
       </c>
       <c r="G93">
         <f t="shared" si="2"/>
-        <v>0.45735326576576596</v>
+        <v>5.6529816513761322E-2</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -29644,25 +32323,25 @@
         <v>109</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>507</v>
+        <v>589</v>
       </c>
       <c r="C94" t="str">
         <f>B89</f>
-        <v>S202</v>
+        <v>S188</v>
       </c>
       <c r="D94" s="3">
-        <v>1.4970000000000001</v>
+        <v>1.2809999999999999</v>
       </c>
       <c r="E94" s="3">
-        <v>1.054</v>
+        <v>1.036</v>
       </c>
       <c r="F94">
         <f t="shared" si="3"/>
-        <v>1.0315869516811398</v>
+        <v>1.0352670765027328</v>
       </c>
       <c r="G94">
         <f t="shared" si="2"/>
-        <v>0.46541304831886032</v>
+        <v>0.24573292349726716</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -29670,25 +32349,25 @@
         <v>110</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>507</v>
+        <v>589</v>
       </c>
       <c r="C95" t="str">
         <f>B88</f>
-        <v>S202</v>
+        <v>S188</v>
       </c>
       <c r="D95" s="3">
-        <v>1.5009999999999999</v>
+        <v>1.171</v>
       </c>
       <c r="E95" s="3">
-        <v>1.016</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="F95">
         <f t="shared" si="3"/>
-        <v>0.99174505884965569</v>
+        <v>1.0089893520495306</v>
       </c>
       <c r="G95">
         <f t="shared" si="2"/>
-        <v>0.5092549411503442</v>
+        <v>0.16201064795046949</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -29700,21 +32379,21 @@
       </c>
       <c r="C96" t="str">
         <f>B87</f>
-        <v>S202</v>
+        <v>S188</v>
       </c>
       <c r="D96" s="3">
-        <v>1.411</v>
+        <v>1.1830000000000001</v>
       </c>
       <c r="E96" s="3">
-        <v>0.90500000000000003</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="F96">
         <f t="shared" si="3"/>
-        <v>0.93974190881171726</v>
+        <v>1.0160676510989013</v>
       </c>
       <c r="G96">
         <f t="shared" si="2"/>
-        <v>0.47125809118828277</v>
+        <v>0.16693234890109876</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -29726,21 +32405,21 @@
       </c>
       <c r="C97" t="str">
         <f>B86</f>
-        <v>S202</v>
+        <v>S188</v>
       </c>
       <c r="D97" s="3">
-        <v>1.4339999999999999</v>
+        <v>1.1719999999999999</v>
       </c>
       <c r="E97" s="3">
-        <v>1.004</v>
+        <v>0.94</v>
       </c>
       <c r="F97">
         <f t="shared" si="3"/>
-        <v>1.0258210134821013</v>
+        <v>1.0266963523890789</v>
       </c>
       <c r="G97">
         <f t="shared" si="2"/>
-        <v>0.40817898651789863</v>
+        <v>0.14530364761092107</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -29756,8 +32435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00735DBA-7884-8044-AC9F-2616867A5834}">
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="106" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="106" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35053,7 +37732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862B65F8-67B0-A940-9F78-61508D61169F}">
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView topLeftCell="E14" zoomScale="119" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="119" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -37703,7 +40382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EF034E-FB73-7D4D-9F35-90A2DB34AF55}">
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView topLeftCell="E18" zoomScale="119" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="119" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -40353,7 +43032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448657B4-B160-784E-9C50-70A8B41184D4}">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView topLeftCell="D15" zoomScale="119" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="119" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -43096,7 +45775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6287CB16-0677-3349-963E-48C366D0BB69}">
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="88" workbookViewId="0">
+    <sheetView zoomScale="88" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
@@ -45747,7 +48426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CB0852-8071-484B-8FF2-F0A443050C6E}">
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView topLeftCell="F20" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -48384,7 +51063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7BBE45-F7C1-974C-807C-2D402085706D}">
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
